--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/Teszt_2_SzP.xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/Teszt_2_SzP.xlsx
@@ -323,7 +323,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +332,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -617,7 +617,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="18">
         <v>43602</v>
       </c>
       <c r="C3" s="11"/>
@@ -660,7 +660,7 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -674,10 +674,10 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
@@ -686,32 +686,32 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="6"/>
     </row>
   </sheetData>
@@ -719,5 +719,6 @@
     <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>